--- a/doc/Test_Scenario_doc.xlsx
+++ b/doc/Test_Scenario_doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cabinet\work$\mtm464\cmpt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingmack1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
   <si>
     <t>Project Name</t>
   </si>
@@ -328,6 +328,51 @@
   </si>
   <si>
     <t>REQ_25</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>SYS</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT </t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Test Scenarios</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>System test</t>
+  </si>
+  <si>
+    <t>Feature test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Acceptance </t>
+  </si>
+  <si>
+    <t>Integration test</t>
   </si>
 </sst>
 </file>
@@ -444,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,11 +549,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -529,23 +583,18 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,13 +611,26 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,20 +640,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D6"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,22 +1024,24 @@
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -990,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1011,320 +1070,381 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="30" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="44"/>
+    </row>
+    <row r="6" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
       <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+  <mergeCells count="51">
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B9:D9"/>
@@ -1341,32 +1461,18 @@
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:XFD20">
+  <conditionalFormatting sqref="A6:XFD20 A5:O5 Q5:XFD5">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
@@ -1386,215 +1492,215 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="71.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1620,17 +1726,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1639,144 +1745,144 @@
       <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1787,168 +1893,160 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="14"/>
       <c r="J12" s="17"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="13"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ssMck9pFw9V9ldaRh95JdUDD8wnLuOhg1UYMLEQiEEfnWR0/8Jw9q1OIkPMKZMdwoXtYmetBhN0HFkcJg6QjIw==" saltValue="1N/vuZnn8YFXm0mmZjxkEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:J23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="C12:E12"/>
@@ -1962,13 +2060,21 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:J23"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1985,17 +2091,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2004,144 +2110,144 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2152,152 +2258,177 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -2308,31 +2439,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2349,17 +2455,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2368,144 +2474,144 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2516,152 +2622,177 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -2672,31 +2803,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2713,17 +2819,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2732,144 +2838,144 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2880,152 +2986,177 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -3036,31 +3167,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3077,17 +3183,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3096,144 +3202,144 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -3244,152 +3350,177 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -3400,31 +3531,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3441,17 +3547,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3460,144 +3566,144 @@
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -3608,152 +3714,177 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -3764,31 +3895,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Test_Scenario_doc.xlsx
+++ b/doc/Test_Scenario_doc.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingmack1\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="9460"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -21,8 +16,11 @@
     <sheet name="TS_FT_TCs" sheetId="7" r:id="rId7"/>
     <sheet name="TS_UX_TCs" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>Project Name</t>
   </si>
@@ -373,6 +371,12 @@
   </si>
   <si>
     <t>Integration test</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Testing to see if the application can authorize using google account</t>
   </si>
 </sst>
 </file>
@@ -382,10 +386,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,29 +519,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,23 +549,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +574,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -596,6 +618,24 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,23 +654,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,18 +670,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -735,7 +795,7 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+          <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
             <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
           </a:ext>
         </a:extLst>
@@ -789,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,7 +884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1011,37 +1071,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1070,69 +1130,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="29.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="O5" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="P5" s="44"/>
-    </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" s="16" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="11"/>
       <c r="O6" s="11" t="s">
         <v>100</v>
@@ -1141,21 +1201,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="16" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="11"/>
       <c r="O7" s="11" t="s">
         <v>101</v>
@@ -1164,21 +1224,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="16" customFormat="1">
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="11"/>
       <c r="O8" s="11" t="s">
         <v>102</v>
@@ -1187,21 +1247,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
       <c r="M9" s="10"/>
       <c r="O9" s="11" t="s">
         <v>103</v>
@@ -1210,21 +1270,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
       <c r="M10" s="10"/>
       <c r="O10" s="11" t="s">
         <v>104</v>
@@ -1233,21 +1293,21 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="10"/>
       <c r="O11" s="11" t="s">
         <v>105</v>
@@ -1256,21 +1316,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="12"/>
       <c r="O12" s="11" t="s">
         <v>106</v>
@@ -1279,147 +1339,192 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="54">
+        <v>1</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="50">
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="B20:D20"/>
@@ -1432,53 +1537,22 @@
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:XFD20 A5:O5 Q5:XFD5">
+  <conditionalFormatting sqref="A5:O5 Q5:XFD5 A6:XFD13 N14:XFD20 A14:B14 E14:K14 M14 A15:M20">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1486,17 +1560,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
@@ -1504,7 +1578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
@@ -1512,7 +1586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
@@ -1520,7 +1594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="24" t="s">
         <v>76</v>
       </c>
@@ -1528,7 +1602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="28">
       <c r="B6" s="24" t="s">
         <v>77</v>
       </c>
@@ -1536,7 +1610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" s="24" t="s">
         <v>78</v>
       </c>
@@ -1544,7 +1618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="24" t="s">
         <v>79</v>
       </c>
@@ -1552,7 +1626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" s="24" t="s">
         <v>80</v>
       </c>
@@ -1560,7 +1634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
         <v>81</v>
       </c>
@@ -1568,7 +1642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" s="24" t="s">
         <v>82</v>
       </c>
@@ -1576,7 +1650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="24" t="s">
         <v>83</v>
       </c>
@@ -1584,7 +1658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="24" t="s">
         <v>84</v>
       </c>
@@ -1592,7 +1666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="24" t="s">
         <v>85</v>
       </c>
@@ -1600,7 +1674,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="28">
       <c r="B15" s="24" t="s">
         <v>86</v>
       </c>
@@ -1608,7 +1682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="24" t="s">
         <v>87</v>
       </c>
@@ -1616,7 +1690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="28">
       <c r="B17" s="24" t="s">
         <v>88</v>
       </c>
@@ -1624,7 +1698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="28">
       <c r="B18" s="24" t="s">
         <v>89</v>
       </c>
@@ -1632,7 +1706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="42">
       <c r="B19" s="24" t="s">
         <v>90</v>
       </c>
@@ -1640,7 +1714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="24" t="s">
         <v>91</v>
       </c>
@@ -1648,7 +1722,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="28">
       <c r="B21" s="24" t="s">
         <v>92</v>
       </c>
@@ -1656,7 +1730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="42">
       <c r="B22" s="24" t="s">
         <v>93</v>
       </c>
@@ -1664,7 +1738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="24" t="s">
         <v>94</v>
       </c>
@@ -1672,7 +1746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="24" t="s">
         <v>95</v>
       </c>
@@ -1680,7 +1754,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="24" t="s">
         <v>96</v>
       </c>
@@ -1688,7 +1762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="24" t="s">
         <v>97</v>
       </c>
@@ -1696,7 +1770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27" s="24" t="s">
         <v>98</v>
       </c>
@@ -1707,6 +1781,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1718,171 +1797,171 @@
       <selection activeCell="B1" sqref="B1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11">
       <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:11">
+      <c r="B6" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="41"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+    <row r="9" spans="2:11">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1891,162 +1970,170 @@
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="19"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14"/>
       <c r="J12" s="17"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="19"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="19"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="19"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="19"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="19"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="19"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+    <row r="22" spans="2:11">
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="13"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ssMck9pFw9V9ldaRh95JdUDD8wnLuOhg1UYMLEQiEEfnWR0/8Jw9q1OIkPMKZMdwoXtYmetBhN0HFkcJg6QjIw==" saltValue="1N/vuZnn8YFXm0mmZjxkEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:J23"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:J10"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="C12:E12"/>
@@ -2060,23 +2147,20 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:J23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2084,170 +2168,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2256,179 +2340,154 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="19"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="19"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="19"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="19"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="19"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="19"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="19"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+    <row r="24" spans="2:11">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -2439,8 +2498,38 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2452,166 +2541,166 @@
       <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2620,179 +2709,154 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="19"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="19"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="19"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="19"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="19"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="19"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="19"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+    <row r="24" spans="2:11">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -2803,8 +2867,38 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2816,166 +2910,166 @@
       <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -2984,179 +3078,154 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="19"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="19"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="19"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="19"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="19"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="19"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="19"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+    <row r="24" spans="2:11">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -3167,8 +3236,38 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3180,166 +3279,166 @@
       <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -3348,179 +3447,154 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="19"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="19"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="19"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="19"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="19"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="19"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="19"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+    <row r="24" spans="2:11">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -3531,8 +3605,38 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3544,166 +3648,166 @@
       <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11">
       <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="41"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+    <row r="11" spans="2:11">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="18" t="s">
         <v>44</v>
       </c>
@@ -3712,179 +3816,154 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="19"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
       <c r="J13" s="17"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="19"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
       <c r="J14" s="17"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="19"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14"/>
       <c r="J15" s="17"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="19"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="14"/>
       <c r="J16" s="17"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="19"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14"/>
       <c r="J17" s="17"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14"/>
       <c r="J18" s="17"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="19"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="14"/>
       <c r="J19" s="17"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="19"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14"/>
       <c r="J20" s="17"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="19"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="14"/>
       <c r="J21" s="17"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+    <row r="23" spans="2:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
+    <row r="24" spans="2:11">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:J8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:J11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:B24"/>
@@ -3895,7 +3974,37 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:J11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/Test_Scenario_doc.xlsx
+++ b/doc/Test_Scenario_doc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="9460"/>
+    <workbookView xWindow="2700" yWindow="1580" windowWidth="21580" windowHeight="9460" tabRatio="790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="142">
   <si>
     <t>Project Name</t>
   </si>
@@ -377,6 +377,84 @@
   </si>
   <si>
     <t>Testing to see if the application can authorize using google account</t>
+  </si>
+  <si>
+    <t>Testing to see if Javascript application loads</t>
+  </si>
+  <si>
+    <t>Testing to see if page loads without error</t>
+  </si>
+  <si>
+    <t>TS_UX_004</t>
+  </si>
+  <si>
+    <t>Testing to see if the application works on Chrome, Firefox, and Opera</t>
+  </si>
+  <si>
+    <t>TS_SYS_004</t>
+  </si>
+  <si>
+    <t>Design Date:</t>
+  </si>
+  <si>
+    <t>Designed by:</t>
+  </si>
+  <si>
+    <t>Google Authentication</t>
+  </si>
+  <si>
+    <t>Go to Website</t>
+  </si>
+  <si>
+    <t>Click authenticate button</t>
+  </si>
+  <si>
+    <t>Enter credentials</t>
+  </si>
+  <si>
+    <t>Website loads</t>
+  </si>
+  <si>
+    <t>New window opens and prompts user to log in</t>
+  </si>
+  <si>
+    <t>Credentials are accepted</t>
+  </si>
+  <si>
+    <t>URL has changed to the new page</t>
+  </si>
+  <si>
+    <t>Test adding a new item</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Create 2 objects and a link</t>
+  </si>
+  <si>
+    <t>Move one of the objects</t>
+  </si>
+  <si>
+    <t>Items are created</t>
+  </si>
+  <si>
+    <t>Drag ends of link to the objects</t>
+  </si>
+  <si>
+    <t>Link connects to the objects</t>
+  </si>
+  <si>
+    <t>Link stays connected to the moving object</t>
+  </si>
+  <si>
+    <t>The link is still connected to both objects.</t>
+  </si>
+  <si>
+    <t>Test connecting items with a link</t>
+  </si>
+  <si>
+    <t>(none)</t>
   </si>
 </sst>
 </file>
@@ -509,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -578,13 +656,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -593,7 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -618,20 +708,41 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -672,49 +783,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1069,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1092,16 +1223,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1134,16 +1265,16 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
@@ -1151,345 +1282,576 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" s="16" customFormat="1">
-      <c r="A6" s="11" t="s">
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" s="15" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="11"/>
-      <c r="O6" s="11" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:16" s="15" customFormat="1">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="11"/>
-      <c r="O7" s="11" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:16" s="15" customFormat="1">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="11"/>
-      <c r="O8" s="11" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="10"/>
-      <c r="O9" s="11" t="s">
+      <c r="B9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="51">
+        <v>1</v>
+      </c>
+      <c r="L9" s="53"/>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="10"/>
-      <c r="O10" s="11" t="s">
+      <c r="B10" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="9">
+        <v>10</v>
+      </c>
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="L10" s="53"/>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="11" t="s">
+      <c r="B11" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="9">
+        <v>10</v>
+      </c>
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="59">
+        <v>7</v>
+      </c>
+      <c r="K12" s="60">
+        <v>3</v>
+      </c>
+      <c r="L12" s="60"/>
+      <c r="M12" s="59">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="12"/>
-      <c r="O12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="14" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" ht="14" customHeight="1">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="14">
+        <v>8</v>
+      </c>
+      <c r="K16" s="54">
+        <v>1</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14" customHeight="1">
+      <c r="A17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="15" t="s">
+      <c r="B17" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="14">
+        <v>8</v>
+      </c>
+      <c r="K17" s="54">
+        <v>1</v>
+      </c>
+      <c r="L17" s="56"/>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="54" t="s">
-        <v>115</v>
-      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
       <c r="H18" s="55"/>
       <c r="I18" s="56"/>
-      <c r="J18" s="2">
-        <v>10</v>
-      </c>
-      <c r="K18" s="54">
-        <v>1</v>
-      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="56"/>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13" ht="14" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="8"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="84">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E16:I16"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="E5:I5"/>
@@ -1498,7 +1860,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K7:L7"/>
@@ -1512,37 +1873,30 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:O5 Q5:XFD5 A6:XFD13 N14:XFD20 A14:B14 E14:K14 M14 A15:M20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:O5 Q5:XFD5 A6:XFD11 N12:XFD20 A13:B22 E13:E22 J13:K22 J12 M12:M22 A12">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1560,221 +1914,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="71.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="42">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="42">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1805,316 +2159,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="13"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="13"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="13"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="13"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="19"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="13"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="12"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ssMck9pFw9V9ldaRh95JdUDD8wnLuOhg1UYMLEQiEEfnWR0/8Jw9q1OIkPMKZMdwoXtYmetBhN0HFkcJg6QjIw==" saltValue="1N/vuZnn8YFXm0mmZjxkEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -2168,323 +2522,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="13"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="41"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="13"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="19"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2537,323 +2891,355 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="13"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="41"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="13"/>
+      <c r="C9" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="13"/>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" ht="28" customHeight="1">
+      <c r="B14" s="18">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" ht="14" customHeight="1">
+      <c r="B15" s="18">
+        <v>3</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="19"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2907,322 +3293,322 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K24"/>
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="13"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="41"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="13"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="19"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3276,322 +3662,354 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K24"/>
+      <selection activeCell="F15" sqref="F15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="13"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="41"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="13"/>
+      <c r="C9" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="18">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="18">
+        <v>3</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="19"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3649,318 +4067,322 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="13"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="41"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="13"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="18" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="19"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="19"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="19"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="19"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="19"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="19"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="19"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="19"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/doc/Test_Scenario_doc.xlsx
+++ b/doc/Test_Scenario_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1580" windowWidth="21580" windowHeight="9460" tabRatio="790" activeTab="4"/>
+    <workbookView xWindow="-37980" yWindow="-7040" windowWidth="21580" windowHeight="10700" tabRatio="790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="147">
   <si>
     <t>Project Name</t>
   </si>
@@ -427,34 +427,49 @@
     <t>Test adding a new item</t>
   </si>
   <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Create 2 objects and a link</t>
-  </si>
-  <si>
-    <t>Move one of the objects</t>
-  </si>
-  <si>
-    <t>Items are created</t>
-  </si>
-  <si>
-    <t>Drag ends of link to the objects</t>
-  </si>
-  <si>
-    <t>Link connects to the objects</t>
-  </si>
-  <si>
-    <t>Link stays connected to the moving object</t>
-  </si>
-  <si>
-    <t>The link is still connected to both objects.</t>
-  </si>
-  <si>
     <t>Test connecting items with a link</t>
   </si>
   <si>
     <t>(none)</t>
+  </si>
+  <si>
+    <t>Adding objects</t>
+  </si>
+  <si>
+    <t>Test that we are able to add new objects</t>
+  </si>
+  <si>
+    <t>The objects are created.</t>
+  </si>
+  <si>
+    <t>Repeat for all essential browsers</t>
+  </si>
+  <si>
+    <t>Select 'Stock'</t>
+  </si>
+  <si>
+    <t>Click on view</t>
+  </si>
+  <si>
+    <t>Use an assert to ensure stock was created</t>
+  </si>
+  <si>
+    <t>Repeat for each item</t>
+  </si>
+  <si>
+    <t>Stock' is selected</t>
+  </si>
+  <si>
+    <t>Stock is created</t>
+  </si>
+  <si>
+    <t>Test fails if stock was not created</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -668,14 +683,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -807,6 +824,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -816,36 +839,24 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1203,7 +1214,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:I17"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1497,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="K12" s="60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="60"/>
       <c r="M12" s="59">
@@ -1598,7 +1609,7 @@
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
       <c r="E17" s="54" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -1607,13 +1618,9 @@
       <c r="J17" s="14">
         <v>8</v>
       </c>
-      <c r="K17" s="54">
-        <v>1</v>
-      </c>
+      <c r="K17" s="54"/>
       <c r="L17" s="56"/>
-      <c r="M17" s="14">
-        <v>1</v>
-      </c>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" ht="14" customHeight="1">
       <c r="A18" s="14" t="s">
@@ -1896,7 +1903,7 @@
     <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:O5 Q5:XFD5 A6:XFD11 N12:XFD20 A13:B22 E13:E22 J13:K22 J12 M12:M22 A12">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2523,10 +2530,14 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K24"/>
+      <selection activeCell="C7" sqref="C7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="46" t="s">
@@ -2578,14 +2589,14 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
@@ -2891,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3018,7 +3029,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
@@ -3089,7 +3100,9 @@
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J13" s="16"/>
       <c r="K13" s="12"/>
     </row>
@@ -3102,12 +3115,14 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J14" s="16"/>
       <c r="K14" s="12"/>
     </row>
@@ -3120,18 +3135,24 @@
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J15" s="16"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="18"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="18">
+        <v>4</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>137</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
@@ -3293,10 +3314,14 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="46" t="s">
@@ -3348,14 +3373,14 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
@@ -3661,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3672,9 +3697,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="46" t="s">
-        <v>39</v>
-      </c>
+      <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -3701,11 +3724,13 @@
         <v>35</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
-      <c r="K3" s="12"/>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
@@ -3725,16 +3750,20 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="50"/>
+        <v>122</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>145</v>
+      </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="50"/>
+        <v>121</v>
+      </c>
+      <c r="H5" s="70">
+        <v>42434</v>
+      </c>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
       <c r="K5" s="12"/>
@@ -3760,7 +3789,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -3788,7 +3817,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
@@ -3845,21 +3874,23 @@
       </c>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="18">
+    <row r="13" spans="2:11" ht="15" customHeight="1">
+      <c r="B13" s="68">
         <v>1</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J13" s="16"/>
       <c r="K13" s="12"/>
     </row>
@@ -3868,46 +3899,56 @@
         <v>2</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43"/>
       <c r="F14" s="43" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J14" s="16"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" ht="28" customHeight="1">
       <c r="B15" s="18">
         <v>3</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="C15" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="43" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J15" s="16"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="18"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="18">
+        <v>4</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>141</v>
+      </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="J16" s="16"/>
       <c r="K16" s="12"/>
     </row>
@@ -3976,7 +4017,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -4050,6 +4091,7 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4063,7 +4105,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K24"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4122,14 +4164,14 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="8" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
